--- a/data/excel/crude_oil_monthly_history.xlsx
+++ b/data/excel/crude_oil_monthly_history.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstomoki/home/python/navigation_simulator/cui/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606613E0-5B7A-734B-9C45-B817F4E791A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" iterateDelta="9.9999999999994451E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,11 +42,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,6 +59,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -99,6 +107,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -425,19 +436,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="E358" sqref="E358"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="52" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="52">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -445,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>31427</v>
       </c>
@@ -453,7 +464,7 @@
         <v>22.93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>31458</v>
       </c>
@@ -461,7 +472,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>31486</v>
       </c>
@@ -469,7 +480,7 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>31517</v>
       </c>
@@ -477,7 +488,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>31547</v>
       </c>
@@ -485,7 +496,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>31578</v>
       </c>
@@ -493,7 +504,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>31608</v>
       </c>
@@ -501,7 +512,7 @@
         <v>11.59</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>31639</v>
       </c>
@@ -509,7 +520,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>31670</v>
       </c>
@@ -517,7 +528,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>31700</v>
       </c>
@@ -525,7 +536,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>31731</v>
       </c>
@@ -533,7 +544,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>31761</v>
       </c>
@@ -541,7 +552,7 @@
         <v>16.11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>31792</v>
       </c>
@@ -549,7 +560,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="3">
         <v>31823</v>
       </c>
@@ -557,7 +568,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="3">
         <v>31851</v>
       </c>
@@ -565,7 +576,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="3">
         <v>31882</v>
       </c>
@@ -573,7 +584,7 @@
         <v>18.68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="3">
         <v>31912</v>
       </c>
@@ -581,7 +592,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="3">
         <v>31943</v>
       </c>
@@ -589,7 +600,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="3">
         <v>31973</v>
       </c>
@@ -597,7 +608,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="3">
         <v>32004</v>
       </c>
@@ -605,7 +616,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="3">
         <v>32035</v>
       </c>
@@ -613,7 +624,7 @@
         <v>19.53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="3">
         <v>32065</v>
       </c>
@@ -621,7 +632,7 @@
         <v>19.86</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="3">
         <v>32096</v>
       </c>
@@ -629,7 +640,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="3">
         <v>32126</v>
       </c>
@@ -637,7 +648,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="3">
         <v>32157</v>
       </c>
@@ -645,7 +656,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="3">
         <v>32188</v>
       </c>
@@ -653,7 +664,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="3">
         <v>32217</v>
       </c>
@@ -661,7 +672,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="3">
         <v>32248</v>
       </c>
@@ -669,7 +680,7 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="3">
         <v>32278</v>
       </c>
@@ -677,7 +688,7 @@
         <v>17.420000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="3">
         <v>32309</v>
       </c>
@@ -685,7 +696,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="3">
         <v>32339</v>
       </c>
@@ -693,7 +704,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="3">
         <v>32370</v>
       </c>
@@ -701,7 +712,7 @@
         <v>15.52</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="3">
         <v>32401</v>
       </c>
@@ -709,7 +720,7 @@
         <v>14.54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="3">
         <v>32431</v>
       </c>
@@ -717,7 +728,7 @@
         <v>13.77</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="3">
         <v>32462</v>
       </c>
@@ -725,7 +736,7 @@
         <v>14.14</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="3">
         <v>32492</v>
       </c>
@@ -733,7 +744,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="3">
         <v>32523</v>
       </c>
@@ -741,7 +752,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="3">
         <v>32554</v>
       </c>
@@ -749,7 +760,7 @@
         <v>17.940000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="3">
         <v>32582</v>
       </c>
@@ -757,7 +768,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="3">
         <v>32613</v>
       </c>
@@ -765,7 +776,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="3">
         <v>32643</v>
       </c>
@@ -773,7 +784,7 @@
         <v>20.12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="3">
         <v>32674</v>
       </c>
@@ -781,7 +792,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="3">
         <v>32704</v>
       </c>
@@ -789,7 +800,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="3">
         <v>32735</v>
       </c>
@@ -797,7 +808,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="3">
         <v>32766</v>
       </c>
@@ -805,7 +816,7 @@
         <v>19.59</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="3">
         <v>32796</v>
       </c>
@@ -813,7 +824,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="3">
         <v>32827</v>
       </c>
@@ -821,7 +832,7 @@
         <v>19.86</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="3">
         <v>32857</v>
       </c>
@@ -829,7 +840,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="3">
         <v>32888</v>
       </c>
@@ -837,7 +848,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="3">
         <v>32919</v>
       </c>
@@ -845,7 +856,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="3">
         <v>32947</v>
       </c>
@@ -853,7 +864,7 @@
         <v>20.39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="3">
         <v>32978</v>
       </c>
@@ -861,7 +872,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="3">
         <v>33008</v>
       </c>
@@ -869,7 +880,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="3">
         <v>33039</v>
       </c>
@@ -877,7 +888,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="3">
         <v>33069</v>
       </c>
@@ -885,7 +896,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="3">
         <v>33100</v>
       </c>
@@ -893,7 +904,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="3">
         <v>33131</v>
       </c>
@@ -901,7 +912,7 @@
         <v>33.51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="3">
         <v>33161</v>
       </c>
@@ -909,7 +920,7 @@
         <v>36.04</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" s="3">
         <v>33192</v>
       </c>
@@ -917,7 +928,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" s="3">
         <v>33222</v>
       </c>
@@ -925,7 +936,7 @@
         <v>27.28</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" s="3">
         <v>33253</v>
       </c>
@@ -933,7 +944,7 @@
         <v>25.23</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="3">
         <v>33284</v>
       </c>
@@ -941,7 +952,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" s="3">
         <v>33312</v>
       </c>
@@ -949,7 +960,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="3">
         <v>33343</v>
       </c>
@@ -957,7 +968,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="3">
         <v>33373</v>
       </c>
@@ -965,7 +976,7 @@
         <v>21.23</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="3">
         <v>33404</v>
       </c>
@@ -973,7 +984,7 @@
         <v>20.190000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="3">
         <v>33434</v>
       </c>
@@ -981,7 +992,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="3">
         <v>33465</v>
       </c>
@@ -989,7 +1000,7 @@
         <v>21.69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="3">
         <v>33496</v>
       </c>
@@ -997,7 +1008,7 @@
         <v>21.89</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="3">
         <v>33526</v>
       </c>
@@ -1005,7 +1016,7 @@
         <v>23.23</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="3">
         <v>33557</v>
       </c>
@@ -1013,7 +1024,7 @@
         <v>22.46</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="3">
         <v>33587</v>
       </c>
@@ -1021,7 +1032,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="3">
         <v>33618</v>
       </c>
@@ -1029,7 +1040,7 @@
         <v>18.79</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="3">
         <v>33649</v>
       </c>
@@ -1037,7 +1048,7 @@
         <v>19.010000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="3">
         <v>33678</v>
       </c>
@@ -1045,7 +1056,7 @@
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="3">
         <v>33709</v>
       </c>
@@ -1053,7 +1064,7 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="3">
         <v>33739</v>
       </c>
@@ -1061,7 +1072,7 @@
         <v>20.98</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="3">
         <v>33770</v>
       </c>
@@ -1069,7 +1080,7 @@
         <v>22.39</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="3">
         <v>33800</v>
       </c>
@@ -1077,7 +1088,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="3">
         <v>33831</v>
       </c>
@@ -1085,7 +1096,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="3">
         <v>33862</v>
       </c>
@@ -1093,7 +1104,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" s="3">
         <v>33892</v>
       </c>
@@ -1101,7 +1112,7 @@
         <v>21.69</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" s="3">
         <v>33923</v>
       </c>
@@ -1109,7 +1120,7 @@
         <v>20.34</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" s="3">
         <v>33953</v>
       </c>
@@ -1117,7 +1128,7 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" s="3">
         <v>33984</v>
       </c>
@@ -1125,7 +1136,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" s="3">
         <v>34015</v>
       </c>
@@ -1133,7 +1144,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" s="3">
         <v>34043</v>
       </c>
@@ -1141,7 +1152,7 @@
         <v>20.32</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" s="3">
         <v>34074</v>
       </c>
@@ -1149,7 +1160,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" s="3">
         <v>34104</v>
       </c>
@@ -1157,7 +1168,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" s="3">
         <v>34135</v>
       </c>
@@ -1165,7 +1176,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" s="3">
         <v>34165</v>
       </c>
@@ -1173,7 +1184,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" s="3">
         <v>34196</v>
       </c>
@@ -1181,7 +1192,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" s="3">
         <v>34227</v>
       </c>
@@ -1189,7 +1200,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" s="3">
         <v>34257</v>
       </c>
@@ -1197,7 +1208,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" s="3">
         <v>34288</v>
       </c>
@@ -1205,7 +1216,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" s="3">
         <v>34318</v>
       </c>
@@ -1213,7 +1224,7 @@
         <v>14.52</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" s="3">
         <v>34349</v>
       </c>
@@ -1221,7 +1232,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" s="3">
         <v>34380</v>
       </c>
@@ -1229,7 +1240,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" s="3">
         <v>34408</v>
       </c>
@@ -1237,7 +1248,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101" s="3">
         <v>34439</v>
       </c>
@@ -1245,7 +1256,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" s="3">
         <v>34469</v>
       </c>
@@ -1253,7 +1264,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" s="3">
         <v>34500</v>
       </c>
@@ -1261,7 +1272,7 @@
         <v>19.059999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" s="3">
         <v>34530</v>
       </c>
@@ -1269,7 +1280,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" s="3">
         <v>34561</v>
       </c>
@@ -1277,7 +1288,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" s="3">
         <v>34592</v>
       </c>
@@ -1285,7 +1296,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107" s="3">
         <v>34622</v>
       </c>
@@ -1293,7 +1304,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108" s="3">
         <v>34653</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>18.07</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109" s="3">
         <v>34683</v>
       </c>
@@ -1309,7 +1320,7 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110" s="3">
         <v>34714</v>
       </c>
@@ -1317,7 +1328,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111" s="3">
         <v>34745</v>
       </c>
@@ -1325,7 +1336,7 @@
         <v>18.57</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112" s="3">
         <v>34773</v>
       </c>
@@ -1333,7 +1344,7 @@
         <v>18.54</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113" s="3">
         <v>34804</v>
       </c>
@@ -1341,7 +1352,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114" s="3">
         <v>34834</v>
       </c>
@@ -1349,7 +1360,7 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2">
       <c r="A115" s="3">
         <v>34865</v>
       </c>
@@ -1357,7 +1368,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2">
       <c r="A116" s="3">
         <v>34895</v>
       </c>
@@ -1365,7 +1376,7 @@
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2">
       <c r="A117" s="3">
         <v>34926</v>
       </c>
@@ -1373,7 +1384,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118" s="3">
         <v>34957</v>
       </c>
@@ -1381,7 +1392,7 @@
         <v>18.23</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2">
       <c r="A119" s="3">
         <v>34987</v>
       </c>
@@ -1389,7 +1400,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120" s="3">
         <v>35018</v>
       </c>
@@ -1397,7 +1408,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121" s="3">
         <v>35048</v>
       </c>
@@ -1405,7 +1416,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122" s="3">
         <v>35079</v>
       </c>
@@ -1413,7 +1424,7 @@
         <v>18.86</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123" s="3">
         <v>35110</v>
       </c>
@@ -1421,7 +1432,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2">
       <c r="A124" s="3">
         <v>35139</v>
       </c>
@@ -1429,7 +1440,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2">
       <c r="A125" s="3">
         <v>35170</v>
       </c>
@@ -1437,7 +1448,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2">
       <c r="A126" s="3">
         <v>35200</v>
       </c>
@@ -1445,7 +1456,7 @@
         <v>21.17</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2">
       <c r="A127" s="3">
         <v>35231</v>
       </c>
@@ -1453,7 +1464,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2">
       <c r="A128" s="3">
         <v>35261</v>
       </c>
@@ -1461,7 +1472,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2">
       <c r="A129" s="3">
         <v>35292</v>
       </c>
@@ -1469,7 +1480,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2">
       <c r="A130" s="3">
         <v>35323</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>23.97</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2">
       <c r="A131" s="3">
         <v>35353</v>
       </c>
@@ -1485,7 +1496,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2">
       <c r="A132" s="3">
         <v>35384</v>
       </c>
@@ -1493,7 +1504,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2">
       <c r="A133" s="3">
         <v>35414</v>
       </c>
@@ -1501,7 +1512,7 @@
         <v>25.23</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2">
       <c r="A134" s="3">
         <v>35445</v>
       </c>
@@ -1509,7 +1520,7 @@
         <v>25.13</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2">
       <c r="A135" s="3">
         <v>35476</v>
       </c>
@@ -1517,7 +1528,7 @@
         <v>22.18</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2">
       <c r="A136" s="3">
         <v>35504</v>
       </c>
@@ -1525,7 +1536,7 @@
         <v>20.97</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2">
       <c r="A137" s="3">
         <v>35535</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2">
       <c r="A138" s="3">
         <v>35565</v>
       </c>
@@ -1541,7 +1552,7 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2">
       <c r="A139" s="3">
         <v>35596</v>
       </c>
@@ -1549,7 +1560,7 @@
         <v>19.260000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2">
       <c r="A140" s="3">
         <v>35626</v>
       </c>
@@ -1557,7 +1568,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2">
       <c r="A141" s="3">
         <v>35657</v>
       </c>
@@ -1565,7 +1576,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2">
       <c r="A142" s="3">
         <v>35688</v>
       </c>
@@ -1573,7 +1584,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2">
       <c r="A143" s="3">
         <v>35718</v>
       </c>
@@ -1581,7 +1592,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2">
       <c r="A144" s="3">
         <v>35749</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>20.190000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2">
       <c r="A145" s="3">
         <v>35779</v>
       </c>
@@ -1597,7 +1608,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2">
       <c r="A146" s="3">
         <v>35810</v>
       </c>
@@ -1605,7 +1616,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2">
       <c r="A147" s="3">
         <v>35841</v>
       </c>
@@ -1613,7 +1624,7 @@
         <v>16.059999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2">
       <c r="A148" s="3">
         <v>35869</v>
       </c>
@@ -1621,7 +1632,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2">
       <c r="A149" s="3">
         <v>35900</v>
       </c>
@@ -1629,7 +1640,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2">
       <c r="A150" s="3">
         <v>35930</v>
       </c>
@@ -1637,7 +1648,7 @@
         <v>14.91</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2">
       <c r="A151" s="3">
         <v>35961</v>
       </c>
@@ -1645,7 +1656,7 @@
         <v>13.72</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2">
       <c r="A152" s="3">
         <v>35991</v>
       </c>
@@ -1653,7 +1664,7 @@
         <v>14.17</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2">
       <c r="A153" s="3">
         <v>36022</v>
       </c>
@@ -1661,7 +1672,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2">
       <c r="A154" s="3">
         <v>36053</v>
       </c>
@@ -1669,7 +1680,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2">
       <c r="A155" s="3">
         <v>36083</v>
       </c>
@@ -1677,7 +1688,7 @@
         <v>14.46</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2">
       <c r="A156" s="3">
         <v>36114</v>
       </c>
@@ -1685,7 +1696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2">
       <c r="A157" s="3">
         <v>36144</v>
       </c>
@@ -1693,7 +1704,7 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2">
       <c r="A158" s="3">
         <v>36175</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>12.52</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2">
       <c r="A159" s="3">
         <v>36206</v>
       </c>
@@ -1709,7 +1720,7 @@
         <v>12.01</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2">
       <c r="A160" s="3">
         <v>36234</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2">
       <c r="A161" s="3">
         <v>36265</v>
       </c>
@@ -1725,7 +1736,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2">
       <c r="A162" s="3">
         <v>36295</v>
       </c>
@@ -1733,7 +1744,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2">
       <c r="A163" s="3">
         <v>36326</v>
       </c>
@@ -1741,7 +1752,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2">
       <c r="A164" s="3">
         <v>36356</v>
       </c>
@@ -1749,7 +1760,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2">
       <c r="A165" s="3">
         <v>36387</v>
       </c>
@@ -1757,7 +1768,7 @@
         <v>21.28</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2">
       <c r="A166" s="3">
         <v>36418</v>
       </c>
@@ -1765,7 +1776,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2">
       <c r="A167" s="3">
         <v>36448</v>
       </c>
@@ -1773,7 +1784,7 @@
         <v>22.69</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2">
       <c r="A168" s="3">
         <v>36479</v>
       </c>
@@ -1781,7 +1792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2">
       <c r="A169" s="3">
         <v>36509</v>
       </c>
@@ -1789,7 +1800,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2">
       <c r="A170" s="3">
         <v>36540</v>
       </c>
@@ -1797,7 +1808,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2">
       <c r="A171" s="3">
         <v>36571</v>
       </c>
@@ -1805,7 +1816,7 @@
         <v>29.37</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2">
       <c r="A172" s="3">
         <v>36600</v>
       </c>
@@ -1813,7 +1824,7 @@
         <v>29.84</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2">
       <c r="A173" s="3">
         <v>36631</v>
       </c>
@@ -1821,7 +1832,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2">
       <c r="A174" s="3">
         <v>36661</v>
       </c>
@@ -1829,7 +1840,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2">
       <c r="A175" s="3">
         <v>36692</v>
       </c>
@@ -1837,7 +1848,7 @@
         <v>31.82</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2">
       <c r="A176" s="3">
         <v>36722</v>
       </c>
@@ -1845,7 +1856,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2">
       <c r="A177" s="3">
         <v>36753</v>
       </c>
@@ -1853,7 +1864,7 @@
         <v>31.26</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2">
       <c r="A178" s="3">
         <v>36784</v>
       </c>
@@ -1861,7 +1872,7 @@
         <v>33.880000000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2">
       <c r="A179" s="3">
         <v>36814</v>
       </c>
@@ -1869,7 +1880,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2">
       <c r="A180" s="3">
         <v>36845</v>
       </c>
@@ -1877,7 +1888,7 @@
         <v>34.42</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2">
       <c r="A181" s="3">
         <v>36875</v>
       </c>
@@ -1885,7 +1896,7 @@
         <v>28.44</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2">
       <c r="A182" s="3">
         <v>36906</v>
       </c>
@@ -1893,7 +1904,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2">
       <c r="A183" s="3">
         <v>36937</v>
       </c>
@@ -1901,7 +1912,7 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2">
       <c r="A184" s="3">
         <v>36965</v>
       </c>
@@ -1909,7 +1920,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2">
       <c r="A185" s="3">
         <v>36996</v>
       </c>
@@ -1917,7 +1928,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2">
       <c r="A186" s="3">
         <v>37026</v>
       </c>
@@ -1925,7 +1936,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2">
       <c r="A187" s="3">
         <v>37057</v>
       </c>
@@ -1933,7 +1944,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2">
       <c r="A188" s="3">
         <v>37087</v>
       </c>
@@ -1941,7 +1952,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2">
       <c r="A189" s="3">
         <v>37118</v>
       </c>
@@ -1949,7 +1960,7 @@
         <v>27.37</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2">
       <c r="A190" s="3">
         <v>37149</v>
       </c>
@@ -1957,7 +1968,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2">
       <c r="A191" s="3">
         <v>37179</v>
       </c>
@@ -1965,7 +1976,7 @@
         <v>22.17</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2">
       <c r="A192" s="3">
         <v>37210</v>
       </c>
@@ -1973,7 +1984,7 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2">
       <c r="A193" s="3">
         <v>37240</v>
       </c>
@@ -1981,7 +1992,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2">
       <c r="A194" s="3">
         <v>37271</v>
       </c>
@@ -1989,7 +2000,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2">
       <c r="A195" s="3">
         <v>37302</v>
       </c>
@@ -1997,7 +2008,7 @@
         <v>20.72</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2">
       <c r="A196" s="3">
         <v>37330</v>
       </c>
@@ -2005,7 +2016,7 @@
         <v>24.53</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2">
       <c r="A197" s="3">
         <v>37361</v>
       </c>
@@ -2013,7 +2024,7 @@
         <v>26.18</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2">
       <c r="A198" s="3">
         <v>37391</v>
       </c>
@@ -2021,7 +2032,7 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2">
       <c r="A199" s="3">
         <v>37422</v>
       </c>
@@ -2029,7 +2040,7 @@
         <v>25.52</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2">
       <c r="A200" s="3">
         <v>37452</v>
       </c>
@@ -2037,7 +2048,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2">
       <c r="A201" s="3">
         <v>37483</v>
       </c>
@@ -2045,7 +2056,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2">
       <c r="A202" s="3">
         <v>37514</v>
       </c>
@@ -2053,7 +2064,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2">
       <c r="A203" s="3">
         <v>37544</v>
       </c>
@@ -2061,7 +2072,7 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2">
       <c r="A204" s="3">
         <v>37575</v>
       </c>
@@ -2069,7 +2080,7 @@
         <v>26.35</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2">
       <c r="A205" s="3">
         <v>37605</v>
       </c>
@@ -2077,7 +2088,7 @@
         <v>29.46</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2">
       <c r="A206" s="3">
         <v>37636</v>
       </c>
@@ -2085,7 +2096,7 @@
         <v>32.950000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2">
       <c r="A207" s="3">
         <v>37667</v>
       </c>
@@ -2093,7 +2104,7 @@
         <v>35.83</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2">
       <c r="A208" s="3">
         <v>37695</v>
       </c>
@@ -2101,7 +2112,7 @@
         <v>33.51</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2">
       <c r="A209" s="3">
         <v>37726</v>
       </c>
@@ -2109,7 +2120,7 @@
         <v>28.17</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2">
       <c r="A210" s="3">
         <v>37756</v>
       </c>
@@ -2117,7 +2128,7 @@
         <v>28.11</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2">
       <c r="A211" s="3">
         <v>37787</v>
       </c>
@@ -2125,7 +2136,7 @@
         <v>30.66</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2">
       <c r="A212" s="3">
         <v>37817</v>
       </c>
@@ -2133,7 +2144,7 @@
         <v>30.76</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2">
       <c r="A213" s="3">
         <v>37848</v>
       </c>
@@ -2141,7 +2152,7 @@
         <v>31.57</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2">
       <c r="A214" s="3">
         <v>37879</v>
       </c>
@@ -2149,7 +2160,7 @@
         <v>28.31</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2">
       <c r="A215" s="3">
         <v>37909</v>
       </c>
@@ -2157,7 +2168,7 @@
         <v>30.34</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2">
       <c r="A216" s="3">
         <v>37940</v>
       </c>
@@ -2165,7 +2176,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2">
       <c r="A217" s="3">
         <v>37970</v>
       </c>
@@ -2173,7 +2184,7 @@
         <v>32.130000000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2">
       <c r="A218" s="3">
         <v>38001</v>
       </c>
@@ -2181,7 +2192,7 @@
         <v>34.31</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2">
       <c r="A219" s="3">
         <v>38032</v>
       </c>
@@ -2189,7 +2200,7 @@
         <v>34.69</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2">
       <c r="A220" s="3">
         <v>38061</v>
       </c>
@@ -2197,7 +2208,7 @@
         <v>36.74</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2">
       <c r="A221" s="3">
         <v>38092</v>
       </c>
@@ -2205,7 +2216,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2">
       <c r="A222" s="3">
         <v>38122</v>
       </c>
@@ -2213,7 +2224,7 @@
         <v>40.28</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2">
       <c r="A223" s="3">
         <v>38153</v>
       </c>
@@ -2221,7 +2232,7 @@
         <v>38.03</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2">
       <c r="A224" s="3">
         <v>38183</v>
       </c>
@@ -2229,7 +2240,7 @@
         <v>40.78</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2">
       <c r="A225" s="3">
         <v>38214</v>
       </c>
@@ -2237,7 +2248,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2">
       <c r="A226" s="3">
         <v>38245</v>
       </c>
@@ -2245,7 +2256,7 @@
         <v>45.94</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2">
       <c r="A227" s="3">
         <v>38275</v>
       </c>
@@ -2253,7 +2264,7 @@
         <v>53.28</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2">
       <c r="A228" s="3">
         <v>38306</v>
       </c>
@@ -2261,7 +2272,7 @@
         <v>48.47</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2">
       <c r="A229" s="3">
         <v>38336</v>
       </c>
@@ -2269,7 +2280,7 @@
         <v>43.15</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2">
       <c r="A230" s="3">
         <v>38367</v>
       </c>
@@ -2277,7 +2288,7 @@
         <v>46.84</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2">
       <c r="A231" s="3">
         <v>38398</v>
       </c>
@@ -2285,7 +2296,7 @@
         <v>48.15</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2">
       <c r="A232" s="3">
         <v>38426</v>
       </c>
@@ -2293,7 +2304,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2">
       <c r="A233" s="3">
         <v>38457</v>
       </c>
@@ -2301,7 +2312,7 @@
         <v>52.98</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2">
       <c r="A234" s="3">
         <v>38487</v>
       </c>
@@ -2309,7 +2320,7 @@
         <v>49.83</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2">
       <c r="A235" s="3">
         <v>38518</v>
       </c>
@@ -2317,7 +2328,7 @@
         <v>56.35</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2">
       <c r="A236" s="3">
         <v>38548</v>
       </c>
@@ -2325,7 +2336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2">
       <c r="A237" s="3">
         <v>38579</v>
       </c>
@@ -2333,7 +2344,7 @@
         <v>64.989999999999995</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2">
       <c r="A238" s="3">
         <v>38610</v>
       </c>
@@ -2341,7 +2352,7 @@
         <v>65.59</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2">
       <c r="A239" s="3">
         <v>38640</v>
       </c>
@@ -2349,7 +2360,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2">
       <c r="A240" s="3">
         <v>38671</v>
       </c>
@@ -2357,7 +2368,7 @@
         <v>58.32</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2">
       <c r="A241" s="3">
         <v>38701</v>
       </c>
@@ -2365,7 +2376,7 @@
         <v>59.41</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2">
       <c r="A242" s="3">
         <v>38732</v>
       </c>
@@ -2373,7 +2384,7 @@
         <v>65.489999999999995</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2">
       <c r="A243" s="3">
         <v>38763</v>
       </c>
@@ -2381,7 +2392,7 @@
         <v>61.63</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2">
       <c r="A244" s="3">
         <v>38791</v>
       </c>
@@ -2389,7 +2400,7 @@
         <v>62.69</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2">
       <c r="A245" s="3">
         <v>38822</v>
       </c>
@@ -2397,7 +2408,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2">
       <c r="A246" s="3">
         <v>38852</v>
       </c>
@@ -2405,7 +2416,7 @@
         <v>70.84</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2">
       <c r="A247" s="3">
         <v>38883</v>
       </c>
@@ -2413,7 +2424,7 @@
         <v>70.95</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2">
       <c r="A248" s="3">
         <v>38913</v>
       </c>
@@ -2421,7 +2432,7 @@
         <v>74.41</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2">
       <c r="A249" s="3">
         <v>38944</v>
       </c>
@@ -2429,7 +2440,7 @@
         <v>73.040000000000006</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2">
       <c r="A250" s="3">
         <v>38975</v>
       </c>
@@ -2437,7 +2448,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2">
       <c r="A251" s="3">
         <v>39005</v>
       </c>
@@ -2445,7 +2456,7 @@
         <v>58.89</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2">
       <c r="A252" s="3">
         <v>39036</v>
       </c>
@@ -2453,7 +2464,7 @@
         <v>59.08</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2">
       <c r="A253" s="3">
         <v>39066</v>
       </c>
@@ -2461,7 +2472,7 @@
         <v>61.96</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2">
       <c r="A254" s="3">
         <v>39097</v>
       </c>
@@ -2469,7 +2480,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2">
       <c r="A255" s="3">
         <v>39128</v>
       </c>
@@ -2477,7 +2488,7 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2">
       <c r="A256" s="3">
         <v>39156</v>
       </c>
@@ -2485,7 +2496,7 @@
         <v>60.44</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2">
       <c r="A257" s="3">
         <v>39187</v>
       </c>
@@ -2493,7 +2504,7 @@
         <v>63.98</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2">
       <c r="A258" s="3">
         <v>39217</v>
       </c>
@@ -2501,7 +2512,7 @@
         <v>63.46</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2">
       <c r="A259" s="3">
         <v>39248</v>
       </c>
@@ -2509,7 +2520,7 @@
         <v>67.489999999999995</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2">
       <c r="A260" s="3">
         <v>39278</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>74.12</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2">
       <c r="A261" s="3">
         <v>39309</v>
       </c>
@@ -2525,7 +2536,7 @@
         <v>72.36</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2">
       <c r="A262" s="3">
         <v>39340</v>
       </c>
@@ -2533,7 +2544,7 @@
         <v>79.92</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2">
       <c r="A263" s="3">
         <v>39370</v>
       </c>
@@ -2541,7 +2552,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2">
       <c r="A264" s="3">
         <v>39401</v>
       </c>
@@ -2549,7 +2560,7 @@
         <v>94.77</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2">
       <c r="A265" s="3">
         <v>39431</v>
       </c>
@@ -2557,7 +2568,7 @@
         <v>91.69</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2">
       <c r="A266" s="3">
         <v>39462</v>
       </c>
@@ -2565,7 +2576,7 @@
         <v>92.97</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2">
       <c r="A267" s="3">
         <v>39493</v>
       </c>
@@ -2573,7 +2584,7 @@
         <v>95.39</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2">
       <c r="A268" s="3">
         <v>39522</v>
       </c>
@@ -2581,7 +2592,7 @@
         <v>105.45</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2">
       <c r="A269" s="3">
         <v>39553</v>
       </c>
@@ -2589,7 +2600,7 @@
         <v>112.58</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2">
       <c r="A270" s="3">
         <v>39583</v>
       </c>
@@ -2597,7 +2608,7 @@
         <v>125.4</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2">
       <c r="A271" s="3">
         <v>39614</v>
       </c>
@@ -2605,7 +2616,7 @@
         <v>133.88</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2">
       <c r="A272" s="3">
         <v>39644</v>
       </c>
@@ -2613,7 +2624,7 @@
         <v>133.37</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2">
       <c r="A273" s="3">
         <v>39675</v>
       </c>
@@ -2621,7 +2632,7 @@
         <v>116.67</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2">
       <c r="A274" s="3">
         <v>39706</v>
       </c>
@@ -2629,7 +2640,7 @@
         <v>104.11</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2">
       <c r="A275" s="3">
         <v>39736</v>
       </c>
@@ -2637,7 +2648,7 @@
         <v>76.61</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2">
       <c r="A276" s="3">
         <v>39767</v>
       </c>
@@ -2645,7 +2656,7 @@
         <v>57.31</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2">
       <c r="A277" s="3">
         <v>39797</v>
       </c>
@@ -2653,7 +2664,7 @@
         <v>41.12</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2">
       <c r="A278" s="3">
         <v>39828</v>
       </c>
@@ -2661,7 +2672,7 @@
         <v>41.71</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2">
       <c r="A279" s="3">
         <v>39859</v>
       </c>
@@ -2669,7 +2680,7 @@
         <v>39.090000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2">
       <c r="A280" s="3">
         <v>39887</v>
       </c>
@@ -2677,7 +2688,7 @@
         <v>47.94</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2">
       <c r="A281" s="3">
         <v>39918</v>
       </c>
@@ -2685,7 +2696,7 @@
         <v>49.65</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2">
       <c r="A282" s="3">
         <v>39948</v>
       </c>
@@ -2693,7 +2704,7 @@
         <v>59.03</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2">
       <c r="A283" s="3">
         <v>39979</v>
       </c>
@@ -2701,7 +2712,7 @@
         <v>69.64</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2">
       <c r="A284" s="3">
         <v>40009</v>
       </c>
@@ -2709,7 +2720,7 @@
         <v>64.150000000000006</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2">
       <c r="A285" s="3">
         <v>40040</v>
       </c>
@@ -2717,7 +2728,7 @@
         <v>71.05</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2">
       <c r="A286" s="3">
         <v>40071</v>
       </c>
@@ -2725,7 +2736,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2">
       <c r="A287" s="3">
         <v>40101</v>
       </c>
@@ -2733,7 +2744,7 @@
         <v>75.72</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2">
       <c r="A288" s="3">
         <v>40132</v>
       </c>
@@ -2741,7 +2752,7 @@
         <v>77.989999999999995</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2">
       <c r="A289" s="3">
         <v>40162</v>
       </c>
@@ -2749,7 +2760,7 @@
         <v>74.47</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2">
       <c r="A290" s="3">
         <v>40193</v>
       </c>
@@ -2757,7 +2768,7 @@
         <v>78.33</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2">
       <c r="A291" s="3">
         <v>40224</v>
       </c>
@@ -2765,7 +2776,7 @@
         <v>76.39</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2">
       <c r="A292" s="3">
         <v>40252</v>
       </c>
@@ -2773,7 +2784,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2">
       <c r="A293" s="3">
         <v>40283</v>
       </c>
@@ -2781,7 +2792,7 @@
         <v>84.29</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2">
       <c r="A294" s="3">
         <v>40313</v>
       </c>
@@ -2789,7 +2800,7 @@
         <v>73.739999999999995</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2">
       <c r="A295" s="3">
         <v>40344</v>
       </c>
@@ -2797,7 +2808,7 @@
         <v>75.34</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2">
       <c r="A296" s="3">
         <v>40374</v>
       </c>
@@ -2805,7 +2816,7 @@
         <v>76.319999999999993</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2">
       <c r="A297" s="3">
         <v>40405</v>
       </c>
@@ -2813,7 +2824,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2">
       <c r="A298" s="3">
         <v>40436</v>
       </c>
@@ -2821,7 +2832,7 @@
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2">
       <c r="A299" s="3">
         <v>40466</v>
       </c>
@@ -2829,7 +2840,7 @@
         <v>81.89</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2">
       <c r="A300" s="3">
         <v>40497</v>
       </c>
@@ -2837,7 +2848,7 @@
         <v>84.25</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2">
       <c r="A301" s="3">
         <v>40527</v>
       </c>
@@ -2845,7 +2856,7 @@
         <v>89.15</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2">
       <c r="A302" s="3">
         <v>40558</v>
       </c>
@@ -2853,7 +2864,7 @@
         <v>89.17</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2">
       <c r="A303" s="3">
         <v>40589</v>
       </c>
@@ -2861,7 +2872,7 @@
         <v>88.58</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2">
       <c r="A304" s="3">
         <v>40617</v>
       </c>
@@ -2869,7 +2880,7 @@
         <v>102.86</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2">
       <c r="A305" s="3">
         <v>40648</v>
       </c>
@@ -2877,7 +2888,7 @@
         <v>109.53</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2">
       <c r="A306" s="3">
         <v>40678</v>
       </c>
@@ -2885,7 +2896,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2">
       <c r="A307" s="3">
         <v>40709</v>
       </c>
@@ -2893,7 +2904,7 @@
         <v>96.26</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2">
       <c r="A308" s="3">
         <v>40739</v>
       </c>
@@ -2901,7 +2912,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2">
       <c r="A309" s="3">
         <v>40770</v>
       </c>
@@ -2909,7 +2920,7 @@
         <v>86.33</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2">
       <c r="A310" s="3">
         <v>40801</v>
       </c>
@@ -2917,7 +2928,7 @@
         <v>85.52</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2">
       <c r="A311" s="3">
         <v>40831</v>
       </c>
@@ -2925,7 +2936,7 @@
         <v>86.32</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2">
       <c r="A312" s="3">
         <v>40862</v>
       </c>
@@ -2933,7 +2944,7 @@
         <v>97.16</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2">
       <c r="A313" s="3">
         <v>40892</v>
       </c>
@@ -2941,7 +2952,7 @@
         <v>98.56</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2">
       <c r="A314" s="3">
         <v>40923</v>
       </c>
@@ -2949,7 +2960,7 @@
         <v>100.27</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2">
       <c r="A315" s="3">
         <v>40954</v>
       </c>
@@ -2957,7 +2968,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2">
       <c r="A316" s="3">
         <v>40983</v>
       </c>
@@ -2965,7 +2976,7 @@
         <v>106.16</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2">
       <c r="A317" s="3">
         <v>41014</v>
       </c>
@@ -2973,7 +2984,7 @@
         <v>103.32</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2">
       <c r="A318" s="3">
         <v>41044</v>
       </c>
@@ -2981,7 +2992,7 @@
         <v>94.66</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2">
       <c r="A319" s="3">
         <v>41075</v>
       </c>
@@ -2989,7 +3000,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2">
       <c r="A320" s="3">
         <v>41105</v>
       </c>
@@ -2997,7 +3008,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2">
       <c r="A321" s="3">
         <v>41136</v>
       </c>
@@ -3005,7 +3016,7 @@
         <v>94.13</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2">
       <c r="A322" s="3">
         <v>41167</v>
       </c>
@@ -3013,7 +3024,7 @@
         <v>94.51</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2">
       <c r="A323" s="3">
         <v>41197</v>
       </c>
@@ -3021,7 +3032,7 @@
         <v>89.49</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2">
       <c r="A324" s="3">
         <v>41228</v>
       </c>
@@ -3029,7 +3040,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2">
       <c r="A325" s="3">
         <v>41258</v>
       </c>
@@ -3037,7 +3048,7 @@
         <v>87.86</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2">
       <c r="A326" s="3">
         <v>41289</v>
       </c>
@@ -3045,7 +3056,7 @@
         <v>94.76</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2">
       <c r="A327" s="3">
         <v>41320</v>
       </c>
@@ -3053,7 +3064,7 @@
         <v>95.31</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2">
       <c r="A328" s="3">
         <v>41348</v>
       </c>
@@ -3061,7 +3072,7 @@
         <v>92.94</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2">
       <c r="A329" s="3">
         <v>41379</v>
       </c>
@@ -3069,7 +3080,7 @@
         <v>92.02</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2">
       <c r="A330" s="3">
         <v>41409</v>
       </c>
@@ -3077,7 +3088,7 @@
         <v>94.51</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2">
       <c r="A331" s="3">
         <v>41440</v>
       </c>
@@ -3085,7 +3096,7 @@
         <v>95.77</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2">
       <c r="A332" s="3">
         <v>41470</v>
       </c>
@@ -3093,7 +3104,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2">
       <c r="A333" s="3">
         <v>41501</v>
       </c>
@@ -3101,7 +3112,7 @@
         <v>106.57</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2">
       <c r="A334" s="3">
         <v>41532</v>
       </c>
@@ -3109,7 +3120,7 @@
         <v>106.29</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2">
       <c r="A335" s="3">
         <v>41562</v>
       </c>
@@ -3117,7 +3128,7 @@
         <v>100.54</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2">
       <c r="A336" s="3">
         <v>41593</v>
       </c>
@@ -3125,7 +3136,7 @@
         <v>93.86</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2">
       <c r="A337" s="3">
         <v>41623</v>
       </c>
@@ -3133,7 +3144,7 @@
         <v>97.63</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2">
       <c r="A338" s="3">
         <v>41654</v>
       </c>
@@ -3141,7 +3152,7 @@
         <v>94.62</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2">
       <c r="A339" s="3">
         <v>41685</v>
       </c>
@@ -3149,7 +3160,7 @@
         <v>100.82</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2">
       <c r="A340" s="3">
         <v>41713</v>
       </c>
@@ -3157,7 +3168,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2">
       <c r="A341" s="3">
         <v>41744</v>
       </c>
@@ -3165,7 +3176,7 @@
         <v>102.07</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2">
       <c r="A342" s="3">
         <v>41774</v>
       </c>
@@ -3173,7 +3184,7 @@
         <v>102.18</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2">
       <c r="A343" s="3">
         <v>41805</v>
       </c>
@@ -3181,7 +3192,7 @@
         <v>105.79</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2">
       <c r="A344" s="3">
         <v>41835</v>
       </c>
@@ -3189,7 +3200,7 @@
         <v>103.59</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2">
       <c r="A345" s="3">
         <v>41866</v>
       </c>
@@ -3197,7 +3208,7 @@
         <v>96.54</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2">
       <c r="A346" s="3">
         <v>41897</v>
       </c>
@@ -3205,7 +3216,7 @@
         <v>93.21</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2">
       <c r="A347" s="3">
         <v>41927</v>
       </c>
@@ -3213,7 +3224,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2">
       <c r="A348" s="3">
         <v>41958</v>
       </c>
@@ -3221,7 +3232,7 @@
         <v>75.790000000000006</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2">
       <c r="A349" s="3">
         <v>41988</v>
       </c>
@@ -3229,7 +3240,7 @@
         <v>59.29</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2">
       <c r="A350" s="3">
         <v>42019</v>
       </c>
@@ -3237,7 +3248,7 @@
         <v>47.22</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2">
       <c r="A351" s="3">
         <v>42050</v>
       </c>
@@ -3245,7 +3256,7 @@
         <v>50.58</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2">
       <c r="A352" s="3">
         <v>42078</v>
       </c>
@@ -3253,7 +3264,7 @@
         <v>47.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2">
       <c r="A353" s="3">
         <v>42109</v>
       </c>
@@ -3261,7 +3272,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2">
       <c r="A354" s="3">
         <v>42139</v>
       </c>
@@ -3269,7 +3280,7 @@
         <v>59.27</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2">
       <c r="A355" s="3">
         <v>42170</v>
       </c>
@@ -3277,7 +3288,7 @@
         <v>59.82</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2">
       <c r="A356" s="3">
         <v>42200</v>
       </c>
@@ -3285,7 +3296,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2">
       <c r="A357" s="3">
         <v>42231</v>
       </c>
@@ -3293,7 +3304,7 @@
         <v>42.87</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2">
       <c r="A358" s="3">
         <v>42262</v>
       </c>
@@ -3301,7 +3312,7 @@
         <v>45.48</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2">
       <c r="A359" s="3">
         <v>42292</v>
       </c>
@@ -3309,7 +3320,7 @@
         <v>46.22</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2">
       <c r="A360" s="3">
         <v>42323</v>
       </c>
